--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Dip2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>394.652919610799</v>
+        <v>15.09508766666667</v>
       </c>
       <c r="H2">
-        <v>394.652919610799</v>
+        <v>45.285263</v>
       </c>
       <c r="I2">
-        <v>0.9305658005383456</v>
+        <v>0.03390535125908365</v>
       </c>
       <c r="J2">
-        <v>0.9305658005383456</v>
+        <v>0.03390535125908365</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.71510343173771</v>
+        <v>7.306170666666667</v>
       </c>
       <c r="N2">
-        <v>6.71510343173771</v>
+        <v>21.918512</v>
       </c>
       <c r="O2">
-        <v>0.3213365741644333</v>
+        <v>0.3391103748162015</v>
       </c>
       <c r="P2">
-        <v>0.3213365741644333</v>
+        <v>0.3391103748162015</v>
       </c>
       <c r="Q2">
-        <v>2650.135174823783</v>
+        <v>110.2872867209618</v>
       </c>
       <c r="R2">
-        <v>2650.135174823783</v>
+        <v>992.585580488656</v>
       </c>
       <c r="S2">
-        <v>0.2990248263795753</v>
+        <v>0.01149765637374283</v>
       </c>
       <c r="T2">
-        <v>0.2990248263795753</v>
+        <v>0.01149765637374283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>394.652919610799</v>
+        <v>15.09508766666667</v>
       </c>
       <c r="H3">
-        <v>394.652919610799</v>
+        <v>45.285263</v>
       </c>
       <c r="I3">
-        <v>0.9305658005383456</v>
+        <v>0.03390535125908365</v>
       </c>
       <c r="J3">
-        <v>0.9305658005383456</v>
+        <v>0.03390535125908365</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.998275719301541</v>
+        <v>9.033654666666669</v>
       </c>
       <c r="N3">
-        <v>8.998275719301541</v>
+        <v>27.100964</v>
       </c>
       <c r="O3">
-        <v>0.430592785713669</v>
+        <v>0.4192902355744033</v>
       </c>
       <c r="P3">
-        <v>0.430592785713669</v>
+        <v>0.4192902355744033</v>
       </c>
       <c r="Q3">
-        <v>3551.195784085316</v>
+        <v>136.3638091437258</v>
       </c>
       <c r="R3">
-        <v>3551.195784085316</v>
+        <v>1227.274282293532</v>
       </c>
       <c r="S3">
-        <v>0.4006949203436767</v>
+        <v>0.01421618271665408</v>
       </c>
       <c r="T3">
-        <v>0.4006949203436767</v>
+        <v>0.01421618271665408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>394.652919610799</v>
+        <v>15.09508766666667</v>
       </c>
       <c r="H4">
-        <v>394.652919610799</v>
+        <v>45.285263</v>
       </c>
       <c r="I4">
-        <v>0.9305658005383456</v>
+        <v>0.03390535125908365</v>
       </c>
       <c r="J4">
-        <v>0.9305658005383456</v>
+        <v>0.03390535125908365</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.18403487411146</v>
+        <v>5.205285666666666</v>
       </c>
       <c r="N4">
-        <v>5.18403487411146</v>
+        <v>15.615857</v>
       </c>
       <c r="O4">
-        <v>0.2480706401218978</v>
+        <v>0.2415993896093951</v>
       </c>
       <c r="P4">
-        <v>0.2480706401218978</v>
+        <v>0.2415993896093952</v>
       </c>
       <c r="Q4">
-        <v>2045.894498432289</v>
+        <v>78.57424346837676</v>
       </c>
       <c r="R4">
-        <v>2045.894498432289</v>
+        <v>707.1681912153909</v>
       </c>
       <c r="S4">
-        <v>0.2308460538150936</v>
+        <v>0.008191512168686747</v>
       </c>
       <c r="T4">
-        <v>0.2308460538150936</v>
+        <v>0.008191512168686748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.4470412758859</v>
+        <v>398.9908546666666</v>
       </c>
       <c r="H5">
-        <v>29.4470412758859</v>
+        <v>1196.972564</v>
       </c>
       <c r="I5">
-        <v>0.06943419946165438</v>
+        <v>0.8961806234824337</v>
       </c>
       <c r="J5">
-        <v>0.06943419946165438</v>
+        <v>0.8961806234824337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.71510343173771</v>
+        <v>7.306170666666667</v>
       </c>
       <c r="N5">
-        <v>6.71510343173771</v>
+        <v>21.918512</v>
       </c>
       <c r="O5">
-        <v>0.3213365741644333</v>
+        <v>0.3391103748162015</v>
       </c>
       <c r="P5">
-        <v>0.3213365741644333</v>
+        <v>0.3391103748162015</v>
       </c>
       <c r="Q5">
-        <v>197.7399279262234</v>
+        <v>2915.095278633863</v>
       </c>
       <c r="R5">
-        <v>197.7399279262234</v>
+        <v>26235.85750770476</v>
       </c>
       <c r="S5">
-        <v>0.02231174778485796</v>
+        <v>0.3039041471321452</v>
       </c>
       <c r="T5">
-        <v>0.02231174778485796</v>
+        <v>0.3039041471321453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.4470412758859</v>
+        <v>398.9908546666666</v>
       </c>
       <c r="H6">
-        <v>29.4470412758859</v>
+        <v>1196.972564</v>
       </c>
       <c r="I6">
-        <v>0.06943419946165438</v>
+        <v>0.8961806234824337</v>
       </c>
       <c r="J6">
-        <v>0.06943419946165438</v>
+        <v>0.8961806234824337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.998275719301541</v>
+        <v>9.033654666666669</v>
       </c>
       <c r="N6">
-        <v>8.998275719301541</v>
+        <v>27.100964</v>
       </c>
       <c r="O6">
-        <v>0.430592785713669</v>
+        <v>0.4192902355744033</v>
       </c>
       <c r="P6">
-        <v>0.430592785713669</v>
+        <v>0.4192902355744033</v>
       </c>
       <c r="Q6">
-        <v>264.9725965180743</v>
+        <v>3604.345596216855</v>
       </c>
       <c r="R6">
-        <v>264.9725965180743</v>
+        <v>32439.1103659517</v>
       </c>
       <c r="S6">
-        <v>0.0298978653699923</v>
+        <v>0.3757597847371653</v>
       </c>
       <c r="T6">
-        <v>0.0298978653699923</v>
+        <v>0.3757597847371653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>398.9908546666666</v>
+      </c>
+      <c r="H7">
+        <v>1196.972564</v>
+      </c>
+      <c r="I7">
+        <v>0.8961806234824337</v>
+      </c>
+      <c r="J7">
+        <v>0.8961806234824337</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.205285666666666</v>
+      </c>
+      <c r="N7">
+        <v>15.615857</v>
+      </c>
+      <c r="O7">
+        <v>0.2415993896093951</v>
+      </c>
+      <c r="P7">
+        <v>0.2415993896093952</v>
+      </c>
+      <c r="Q7">
+        <v>2076.861376927483</v>
+      </c>
+      <c r="R7">
+        <v>18691.75239234735</v>
+      </c>
+      <c r="S7">
+        <v>0.2165166916131231</v>
+      </c>
+      <c r="T7">
+        <v>0.2165166916131232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.12660099999999</v>
+      </c>
+      <c r="H8">
+        <v>93.37980299999998</v>
+      </c>
+      <c r="I8">
+        <v>0.06991402525848273</v>
+      </c>
+      <c r="J8">
+        <v>0.06991402525848271</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.306170666666667</v>
+      </c>
+      <c r="N8">
+        <v>21.918512</v>
+      </c>
+      <c r="O8">
+        <v>0.3391103748162015</v>
+      </c>
+      <c r="P8">
+        <v>0.3391103748162015</v>
+      </c>
+      <c r="Q8">
+        <v>227.4162591792373</v>
+      </c>
+      <c r="R8">
+        <v>2046.746332613136</v>
+      </c>
+      <c r="S8">
+        <v>0.02370857131031346</v>
+      </c>
+      <c r="T8">
+        <v>0.02370857131031345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>29.4470412758859</v>
-      </c>
-      <c r="H7">
-        <v>29.4470412758859</v>
-      </c>
-      <c r="I7">
-        <v>0.06943419946165438</v>
-      </c>
-      <c r="J7">
-        <v>0.06943419946165438</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.18403487411146</v>
-      </c>
-      <c r="N7">
-        <v>5.18403487411146</v>
-      </c>
-      <c r="O7">
-        <v>0.2480706401218978</v>
-      </c>
-      <c r="P7">
-        <v>0.2480706401218978</v>
-      </c>
-      <c r="Q7">
-        <v>152.6544889135921</v>
-      </c>
-      <c r="R7">
-        <v>152.6544889135921</v>
-      </c>
-      <c r="S7">
-        <v>0.01722458630680413</v>
-      </c>
-      <c r="T7">
-        <v>0.01722458630680413</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.12660099999999</v>
+      </c>
+      <c r="H9">
+        <v>93.37980299999998</v>
+      </c>
+      <c r="I9">
+        <v>0.06991402525848273</v>
+      </c>
+      <c r="J9">
+        <v>0.06991402525848271</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.033654666666669</v>
+      </c>
+      <c r="N9">
+        <v>27.100964</v>
+      </c>
+      <c r="O9">
+        <v>0.4192902355744033</v>
+      </c>
+      <c r="P9">
+        <v>0.4192902355744033</v>
+      </c>
+      <c r="Q9">
+        <v>281.1869643811214</v>
+      </c>
+      <c r="R9">
+        <v>2530.682679430092</v>
+      </c>
+      <c r="S9">
+        <v>0.02931426812058401</v>
+      </c>
+      <c r="T9">
+        <v>0.029314268120584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>31.12660099999999</v>
+      </c>
+      <c r="H10">
+        <v>93.37980299999998</v>
+      </c>
+      <c r="I10">
+        <v>0.06991402525848273</v>
+      </c>
+      <c r="J10">
+        <v>0.06991402525848271</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.205285666666666</v>
+      </c>
+      <c r="N10">
+        <v>15.615857</v>
+      </c>
+      <c r="O10">
+        <v>0.2415993896093951</v>
+      </c>
+      <c r="P10">
+        <v>0.2415993896093952</v>
+      </c>
+      <c r="Q10">
+        <v>162.0228500373523</v>
+      </c>
+      <c r="R10">
+        <v>1458.20565033617</v>
+      </c>
+      <c r="S10">
+        <v>0.01689118582758526</v>
+      </c>
+      <c r="T10">
+        <v>0.01689118582758526</v>
       </c>
     </row>
   </sheetData>
